--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195893.9401731032</v>
+        <v>184848.8024365213</v>
       </c>
     </row>
     <row r="7">
@@ -26329,10 +26329,10 @@
         <v>120036.5755573568</v>
       </c>
       <c r="H2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
       <c r="I2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
       <c r="J2" t="n">
         <v>120036.5755573568</v>
@@ -26347,13 +26347,13 @@
         <v>120036.5755573568</v>
       </c>
       <c r="N2" t="n">
-        <v>120036.5755573568</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="O2" t="n">
         <v>120036.5755573568</v>
       </c>
       <c r="P2" t="n">
-        <v>120036.5755573568</v>
+        <v>120036.5755573567</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94937.81247666414</v>
+        <v>96756.66497830173</v>
       </c>
       <c r="C4" t="n">
-        <v>94937.81247666413</v>
+        <v>96756.66497830173</v>
       </c>
       <c r="D4" t="n">
-        <v>94937.81247666414</v>
+        <v>96756.66497830173</v>
       </c>
       <c r="E4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="F4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="G4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="H4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="I4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="J4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="K4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="L4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="M4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="N4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="O4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="P4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15682.63666864545</v>
+        <v>-17501.48917028304</v>
       </c>
       <c r="C6" t="n">
-        <v>-15682.63666864543</v>
+        <v>-17501.48917028304</v>
       </c>
       <c r="D6" t="n">
-        <v>-15682.63666864543</v>
+        <v>-17501.48917028304</v>
       </c>
       <c r="E6" t="n">
-        <v>-72935.6712281699</v>
+        <v>-74013.53255089134</v>
       </c>
       <c r="F6" t="n">
-        <v>60164.32877183015</v>
+        <v>59086.46744910866</v>
       </c>
       <c r="G6" t="n">
-        <v>60164.32877183015</v>
+        <v>59086.46744910866</v>
       </c>
       <c r="H6" t="n">
-        <v>60164.32877183012</v>
+        <v>59086.46744910867</v>
       </c>
       <c r="I6" t="n">
-        <v>60164.32877183012</v>
+        <v>59086.46744910866</v>
       </c>
       <c r="J6" t="n">
-        <v>60164.32877183017</v>
+        <v>59086.46744910866</v>
       </c>
       <c r="K6" t="n">
-        <v>60164.32877183014</v>
+        <v>59086.46744910866</v>
       </c>
       <c r="L6" t="n">
-        <v>60164.32877183014</v>
+        <v>59086.46744910868</v>
       </c>
       <c r="M6" t="n">
-        <v>60164.32877183014</v>
+        <v>59086.46744910867</v>
       </c>
       <c r="N6" t="n">
-        <v>60164.32877183014</v>
+        <v>59086.46744910864</v>
       </c>
       <c r="O6" t="n">
-        <v>60164.32877183014</v>
+        <v>59086.46744910866</v>
       </c>
       <c r="P6" t="n">
-        <v>60164.32877183014</v>
+        <v>59086.46744910864</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>184848.8024365213</v>
+        <v>198575.1605739394</v>
       </c>
     </row>
     <row r="7">
@@ -26347,13 +26349,13 @@
         <v>120036.5755573568</v>
       </c>
       <c r="N2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
       <c r="O2" t="n">
         <v>120036.5755573568</v>
       </c>
       <c r="P2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96756.66497830173</v>
+        <v>96756.66497830175</v>
       </c>
       <c r="C4" t="n">
-        <v>96756.66497830173</v>
+        <v>96756.66497830176</v>
       </c>
       <c r="D4" t="n">
-        <v>96756.66497830173</v>
+        <v>96756.66497830175</v>
       </c>
       <c r="E4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="F4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="G4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="H4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="I4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="J4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="K4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="L4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="M4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="N4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="O4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="P4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-17501.48917028306</v>
       </c>
       <c r="C6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-17501.48917028307</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-17501.48917028306</v>
       </c>
       <c r="E6" t="n">
-        <v>-74013.53255089134</v>
+        <v>-74013.53255089138</v>
       </c>
       <c r="F6" t="n">
         <v>59086.46744910866</v>
       </c>
       <c r="G6" t="n">
+        <v>59086.46744910867</v>
+      </c>
+      <c r="H6" t="n">
+        <v>59086.46744910868</v>
+      </c>
+      <c r="I6" t="n">
+        <v>59086.46744910867</v>
+      </c>
+      <c r="J6" t="n">
+        <v>59086.46744910868</v>
+      </c>
+      <c r="K6" t="n">
+        <v>59086.46744910868</v>
+      </c>
+      <c r="L6" t="n">
         <v>59086.46744910866</v>
-      </c>
-      <c r="H6" t="n">
-        <v>59086.46744910867</v>
-      </c>
-      <c r="I6" t="n">
-        <v>59086.46744910866</v>
-      </c>
-      <c r="J6" t="n">
-        <v>59086.46744910866</v>
-      </c>
-      <c r="K6" t="n">
-        <v>59086.46744910866</v>
-      </c>
-      <c r="L6" t="n">
-        <v>59086.46744910868</v>
       </c>
       <c r="M6" t="n">
         <v>59086.46744910867</v>
       </c>
       <c r="N6" t="n">
-        <v>59086.46744910864</v>
+        <v>59086.46744910866</v>
       </c>
       <c r="O6" t="n">
+        <v>59086.46744910867</v>
+      </c>
+      <c r="P6" t="n">
         <v>59086.46744910866</v>
-      </c>
-      <c r="P6" t="n">
-        <v>59086.46744910864</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198575.1605739394</v>
+        <v>73465.26177646279</v>
       </c>
     </row>
     <row r="7">
@@ -26429,37 +26429,37 @@
         <v>57338.49600323976</v>
       </c>
       <c r="F4" t="n">
+        <v>57338.49600323976</v>
+      </c>
+      <c r="G4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>57338.49600323976</v>
-      </c>
-      <c r="P4" t="n">
-        <v>57338.49600323977</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028306</v>
+        <v>-32652.16314031782</v>
       </c>
       <c r="C6" t="n">
-        <v>-17501.48917028307</v>
+        <v>-32652.16314031781</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028306</v>
+        <v>-32652.16314031782</v>
       </c>
       <c r="E6" t="n">
-        <v>-74013.53255089138</v>
+        <v>-88823.54939000528</v>
       </c>
       <c r="F6" t="n">
-        <v>59086.46744910866</v>
+        <v>44276.45060999476</v>
       </c>
       <c r="G6" t="n">
-        <v>59086.46744910867</v>
+        <v>44276.45060999476</v>
       </c>
       <c r="H6" t="n">
-        <v>59086.46744910868</v>
+        <v>44276.45060999476</v>
       </c>
       <c r="I6" t="n">
-        <v>59086.46744910867</v>
+        <v>44276.45060999476</v>
       </c>
       <c r="J6" t="n">
-        <v>59086.46744910868</v>
+        <v>44276.45060999476</v>
       </c>
       <c r="K6" t="n">
-        <v>59086.46744910868</v>
+        <v>44276.45060999476</v>
       </c>
       <c r="L6" t="n">
-        <v>59086.46744910866</v>
+        <v>44276.45060999476</v>
       </c>
       <c r="M6" t="n">
-        <v>59086.46744910867</v>
+        <v>44276.45060999476</v>
       </c>
       <c r="N6" t="n">
-        <v>59086.46744910866</v>
+        <v>44276.45060999476</v>
       </c>
       <c r="O6" t="n">
-        <v>59086.46744910867</v>
+        <v>44276.45060999476</v>
       </c>
       <c r="P6" t="n">
-        <v>59086.46744910866</v>
+        <v>44276.45060999476</v>
       </c>
     </row>
   </sheetData>
